--- a/genshin/437725899825156081_2020-09-22_14-00-03.xlsx
+++ b/genshin/437725899825156081_2020-09-22_14-00-03.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:35:28</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.10796296296</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-24 01:07:52</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44098.04712962963</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>3523355160</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-23 23:01:07</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44097.9591087963</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>3521647242</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-23 13:39:59</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44097.56943287037</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -835,10 +843,8 @@
           <t>3520380382</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-23 12:48:14</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44097.53349537037</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -916,10 +922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-23 10:59:21</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44097.45788194444</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -986,10 +990,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-23 10:48:38</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44097.45043981481</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1049,10 +1051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-23 10:31:20</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44097.43842592592</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1128,10 +1128,8 @@
           <t>3518539403</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-23 09:27:35</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44097.3941550926</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1195,10 +1193,8 @@
           <t>3520909028</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-23 08:29:40</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44097.35393518519</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1266,10 +1262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-23 08:19:17</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44097.34672453703</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1346,10 +1340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-23 06:25:50</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44097.26793981482</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1417,10 +1409,8 @@
           <t>3518610545</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-23 03:56:06</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44097.16395833333</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1492,10 +1482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-23 01:31:37</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44097.06362268519</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1559,10 +1547,8 @@
           <t>3520380382</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-23 01:11:47</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44097.04984953703</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1630,10 +1616,8 @@
           <t>3520380382</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-23 00:34:18</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44097.02381944445</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1709,10 +1693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-23 00:27:40</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44097.01921296296</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1780,10 +1762,8 @@
           <t>3520380382</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-23 00:00:21</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44097.00024305555</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1856,10 +1836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-22 23:50:35</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44096.99346064815</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1935,10 +1913,8 @@
           <t>3518610545</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-22 23:01:28</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44096.95935185185</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2002,10 +1978,8 @@
           <t>3518600258</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-22 22:06:07</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44096.92091435185</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2073,10 +2047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-22 21:38:38</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44096.9018287037</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2148,10 +2120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-22 21:31:26</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44096.89682870371</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2219,10 +2189,8 @@
           <t>3518610545</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-22 21:07:08</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44096.8799537037</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2286,10 +2254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-22 21:05:18</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44096.87868055556</v>
       </c>
       <c r="I26" t="n">
         <v>2</v>
@@ -2353,10 +2319,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-22 20:54:23</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44096.87109953703</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2416,10 +2380,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-22 20:52:17</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44096.8696412037</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2487,10 +2449,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-22 20:41:40</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44096.86226851852</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2550,10 +2510,8 @@
           <t>3519586315</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-22 20:33:18</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44096.85645833334</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2625,10 +2583,8 @@
           <t>3519572540</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-22 20:29:49</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44096.85403935185</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
@@ -2700,10 +2656,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-22 20:22:06</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44096.84868055556</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2771,10 +2725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-22 19:55:33</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44096.83024305556</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2844,10 +2796,8 @@
           <t>3518610545</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-22 19:44:30</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44096.82256944444</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2915,10 +2865,8 @@
           <t>3519375332</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-22 19:31:10</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44096.81331018519</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
@@ -2982,10 +2930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-22 19:27:11</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44096.81054398148</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3053,10 +2999,8 @@
           <t>3519354459</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-22 19:26:15</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44096.80989583334</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3120,10 +3064,8 @@
           <t>3519336090</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-22 19:19:15</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44096.80503472222</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3195,10 +3137,8 @@
           <t>3519311104</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-22 19:12:19</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44096.80021990741</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3266,10 +3206,8 @@
           <t>3519296443</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-22 19:08:22</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44096.79747685185</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3345,10 +3283,8 @@
           <t>3519292201</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-22 19:07:23</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44096.79679398148</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3424,10 +3360,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:57:38</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44096.79002314815</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3487,10 +3421,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:57:28</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44096.78990740741</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3550,10 +3482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:56:10</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44096.78900462963</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3621,10 +3551,8 @@
           <t>3519230622</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:49:25</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44096.78431712963</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3692,10 +3620,8 @@
           <t>3519218856</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:47:55</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44096.78327546296</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3759,10 +3685,8 @@
           <t>3519060512</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:39:00</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44096.77708333333</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3838,10 +3762,8 @@
           <t>3518764942</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:33:20</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44096.77314814815</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3913,10 +3835,8 @@
           <t>3519154299</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:30:06</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44096.77090277777</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3988,10 +3908,8 @@
           <t>3519135180</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:22:16</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44096.76546296296</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4067,10 +3985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:21:32</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44096.76495370371</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
@@ -4146,10 +4062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:18:38</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44096.76293981481</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4217,10 +4131,8 @@
           <t>3519113133</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:17:09</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44096.76190972222</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4296,10 +4208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:09:22</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44096.75650462963</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4363,10 +4273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:07:52</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44096.75546296296</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4438,10 +4346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:05:43</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44096.7539699074</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4513,10 +4419,8 @@
           <t>3518579278</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:03:03</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44096.75211805556</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4584,10 +4488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:02:10</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44096.75150462963</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4659,10 +4561,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:01:14</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44096.75085648148</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4734,10 +4634,8 @@
           <t>3519060512</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:00:22</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44096.75025462963</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4805,10 +4703,8 @@
           <t>3519052373</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:58:48</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44096.74916666667</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4880,10 +4776,8 @@
           <t>3519048237</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:58:19</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44096.74883101852</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4959,10 +4853,8 @@
           <t>3519020522</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:47:26</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44096.74127314815</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5026,10 +4918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:47:22</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44096.74122685185</v>
       </c>
       <c r="I64" t="n">
         <v>7</v>
@@ -5097,10 +4987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:38:42</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44096.73520833333</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5176,10 +5064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:32:43</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44096.73105324074</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5244,10 +5130,8 @@
           <t>3518965381</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:28:29</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44096.72811342592</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5311,10 +5195,8 @@
           <t>3518538977</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:25:25</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44096.7259837963</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5378,10 +5260,8 @@
           <t>3518861732</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:23:36</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44096.72472222222</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5445,10 +5325,8 @@
           <t>3518947684</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:23:34</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44096.72469907408</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5512,10 +5390,8 @@
           <t>3518934634</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:20:15</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44096.72239583333</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5583,10 +5459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:19:59</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44096.72221064815</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5662,10 +5536,8 @@
           <t>3518933125</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:18:34</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44096.72122685185</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5742,10 +5614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:15:06</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44096.71881944445</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5817,10 +5687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:11:47</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44096.71651620371</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -5888,10 +5756,8 @@
           <t>3518781113</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:11:03</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44096.71600694444</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5959,10 +5825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:09:47</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44096.71512731481</v>
       </c>
       <c r="I77" t="n">
         <v>2</v>
@@ -6034,10 +5898,8 @@
           <t>3518539403</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:09:41</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44096.71505787037</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6109,10 +5971,8 @@
           <t>3518900830</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-22 17:04:15</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44096.71128472222</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6184,10 +6044,8 @@
           <t>3518883307</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:59:41</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44096.70811342593</v>
       </c>
       <c r="I80" t="n">
         <v>2</v>
@@ -6247,10 +6105,8 @@
           <t>3518878295</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:56:43</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44096.70605324074</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6326,10 +6182,8 @@
           <t>3518878243</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:56:39</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44096.70600694444</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6397,10 +6251,8 @@
           <t>3518872803</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:54:18</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44096.704375</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6464,10 +6316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:53:53</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44096.70408564815</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6543,10 +6393,8 @@
           <t>3518864844</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:52:27</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44096.70309027778</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6622,10 +6470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:50:40</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44096.70185185185</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6693,10 +6539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:49:04</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44096.70074074074</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6772,10 +6616,8 @@
           <t>3518861732</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:48:33</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44096.70038194444</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6847,10 +6689,8 @@
           <t>3518861114</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:47:44</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44096.69981481481</v>
       </c>
       <c r="I89" t="n">
         <v>7</v>
@@ -6922,10 +6762,8 @@
           <t>3518856852</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:46:45</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44096.69913194444</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -6997,10 +6835,8 @@
           <t>3518849821</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:46:09</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44096.69871527778</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7064,10 +6900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:42:42</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44096.69631944445</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -7143,10 +6977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:40:39</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44096.69489583333</v>
       </c>
       <c r="I93" t="n">
         <v>3</v>
@@ -7210,10 +7042,8 @@
           <t>3518536327</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:35:49</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44096.69153935185</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7285,10 +7115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:35:34</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44096.69136574074</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7352,10 +7180,8 @@
           <t>3518825323</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:31:10</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44096.68831018519</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7431,10 +7257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:30:09</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44096.68760416667</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7510,10 +7334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:27:41</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44096.68589120371</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7577,10 +7399,8 @@
           <t>3518810107</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:23:59</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44096.68332175926</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7648,10 +7468,8 @@
           <t>3518799777</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:23:32</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44096.68300925926</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7719,10 +7537,8 @@
           <t>3518790597</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:22:35</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44096.68234953703</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7798,10 +7614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:19:10</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44096.67997685185</v>
       </c>
       <c r="I102" t="n">
         <v>5</v>
@@ -7878,10 +7692,8 @@
           <t>3518790597</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:17:09</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44096.67857638889</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7949,10 +7761,8 @@
           <t>3518790564</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:17:06</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44096.67854166667</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -8028,10 +7838,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:16:49</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44096.67834490741</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8107,10 +7915,8 @@
           <t>3518790072</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:16:26</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44096.67807870371</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8178,10 +7984,8 @@
           <t>3518778363</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:14:00</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44096.67638888889</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8249,10 +8053,8 @@
           <t>3518785550</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:13:31</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44096.67605324074</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8320,10 +8122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:13:28</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44096.67601851852</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8391,10 +8191,8 @@
           <t>3518761667</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:13:02</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44096.6757175926</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8462,10 +8260,8 @@
           <t>3518764942</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:12:10</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44096.67511574074</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8541,10 +8337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:11:54</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44096.67493055556</v>
       </c>
       <c r="I112" t="n">
         <v>26</v>
@@ -8616,10 +8410,8 @@
           <t>3518774355</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:11:50</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44096.67488425926</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8695,10 +8487,8 @@
           <t>3518781113</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:11:27</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44096.67461805556</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8766,10 +8556,8 @@
           <t>3518738334</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:10:29</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44096.67394675926</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8837,10 +8625,8 @@
           <t>3518775938</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:10:28</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44096.67393518519</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8912,10 +8698,8 @@
           <t>3518764942</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:09:01</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44096.67292824074</v>
       </c>
       <c r="I117" t="n">
         <v>18</v>
@@ -8979,10 +8763,8 @@
           <t>3518580083</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:08:37</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44096.67265046296</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9050,10 +8832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:05:19</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44096.6703587963</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9121,10 +8901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:04:42</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44096.66993055555</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9188,10 +8966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:04:25</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44096.6697337963</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9267,10 +9043,8 @@
           <t>3518761667</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:04:24</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44096.66972222222</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9342,10 +9116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:03:39</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44096.66920138889</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9421,10 +9193,8 @@
           <t>3518756620</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:01:02</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44096.66738425926</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9492,10 +9262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:59:17</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44096.66616898148</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9563,10 +9331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:56:35</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44096.66429398148</v>
       </c>
       <c r="I126" t="n">
         <v>2</v>
@@ -9638,10 +9404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:55:59</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44096.66387731482</v>
       </c>
       <c r="I127" t="n">
         <v>2</v>
@@ -9717,10 +9481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:55:09</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44096.66329861111</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9788,10 +9550,8 @@
           <t>3518738334</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:53:04</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44096.66185185185</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9855,10 +9615,8 @@
           <t>3518737485</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:51:47</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44096.66096064815</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9926,10 +9684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:49:52</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44096.65962962963</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10001,10 +9757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:48:45</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44096.65885416666</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10068,10 +9822,8 @@
           <t>3518600258</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:46:55</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44096.65758101852</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10139,10 +9891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:45:25</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44096.65653935185</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10214,10 +9964,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:41:45</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44096.65399305556</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10285,10 +10033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:41:25</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44096.65376157407</v>
       </c>
       <c r="I136" t="n">
         <v>10</v>
@@ -10364,10 +10110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:39:29</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44096.65241898148</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10439,10 +10183,8 @@
           <t>3518703597</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:37:10</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44096.65081018519</v>
       </c>
       <c r="I138" t="n">
         <v>3</v>
@@ -10518,10 +10260,8 @@
           <t>3518697697</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:34:03</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44096.64864583333</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10589,10 +10329,8 @@
           <t>3518694552</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:32:37</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44096.64765046296</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10668,10 +10406,8 @@
           <t>3518695735</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:31:13</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44096.64667824074</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10747,10 +10483,8 @@
           <t>3518577520</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:27:38</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44096.64418981481</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -10818,10 +10552,8 @@
           <t>3518577520</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:22:52</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44096.64087962963</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10897,10 +10629,8 @@
           <t>3518610545</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:21:35</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44096.63998842592</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10964,10 +10694,8 @@
           <t>3518610545</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:20:26</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44096.63918981481</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11031,10 +10759,8 @@
           <t>3518675873</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:19:46</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44096.63872685185</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11102,10 +10828,8 @@
           <t>3518667106</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:18:36</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44096.63791666667</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11173,10 +10897,8 @@
           <t>3518618690</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:18:29</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44096.63783564815</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11244,10 +10966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:16:32</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44096.63648148148</v>
       </c>
       <c r="I149" t="n">
         <v>2</v>
@@ -11311,10 +11031,8 @@
           <t>3518654356</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:14:31</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44096.63508101852</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11382,10 +11100,8 @@
           <t>3518618690</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:13:29</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44096.63436342592</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11457,10 +11173,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:12:15</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44096.63350694445</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11520,10 +11234,8 @@
           <t>3518577520</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:10:25</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44096.6322337963</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11591,10 +11303,8 @@
           <t>3518651479</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:10:14</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44096.63210648148</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11670,10 +11380,8 @@
           <t>3518651026</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:09:34</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44096.63164351852</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11737,10 +11445,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:09:33</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44096.63163194444</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11808,10 +11514,8 @@
           <t>3518577520</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:08:55</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44096.63119212963</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11879,10 +11583,8 @@
           <t>3518644321</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:07:58</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44096.63053240741</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11950,10 +11652,8 @@
           <t>3518627547</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:06:56</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44096.62981481481</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12025,10 +11725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:06:45</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44096.6296875</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12097,10 +11795,8 @@
           <t>3518627547</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:06:23</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44096.62943287037</v>
       </c>
       <c r="I161" t="n">
         <v>3</v>
@@ -12168,10 +11864,8 @@
           <t>3518610545</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:05:02</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44096.62849537037</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12239,10 +11933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:04:34</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44096.6281712963</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12310,10 +12002,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:04:15</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44096.62795138889</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12377,10 +12067,8 @@
           <t>3518641637</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:03:53</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44096.62769675926</v>
       </c>
       <c r="I165" t="n">
         <v>2</v>
@@ -12444,10 +12132,8 @@
           <t>3518645061</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:03:06</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44096.62715277778</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12515,10 +12201,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:02:30</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44096.62673611111</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12594,10 +12278,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:00:23</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44096.6252662037</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12673,10 +12355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:59:41</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44096.62478009259</v>
       </c>
       <c r="I169" t="n">
         <v>2</v>
@@ -12744,10 +12424,8 @@
           <t>3518577520</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:59:39</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44096.62475694445</v>
       </c>
       <c r="I170" t="n">
         <v>11</v>
@@ -12823,10 +12501,8 @@
           <t>3518627547</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:57:31</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44096.62327546296</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12894,10 +12570,8 @@
           <t>3518630690</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:56:28</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44096.6225462963</v>
       </c>
       <c r="I172" t="n">
         <v>4</v>
@@ -12965,10 +12639,8 @@
           <t>3518618690</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:55:51</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44096.62211805556</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13044,10 +12716,8 @@
           <t>3518600258</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:55:38</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44096.62196759259</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13115,10 +12785,8 @@
           <t>3518610545</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:55:30</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44096.621875</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13182,10 +12850,8 @@
           <t>3518625839</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:55:05</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44096.62158564815</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13261,10 +12927,8 @@
           <t>3518610545</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:53:49</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44096.62070601852</v>
       </c>
       <c r="I177" t="n">
         <v>8</v>
@@ -13332,10 +12996,8 @@
           <t>3518618690</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:53:37</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44096.62056712963</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13413,10 +13075,8 @@
           <t>3518600258</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:52:47</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44096.61998842593</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13492,10 +13152,8 @@
           <t>3518613988</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:52:22</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44096.61969907407</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13563,10 +13221,8 @@
           <t>3518609656</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:52:13</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44096.61959490741</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13630,10 +13286,8 @@
           <t>3518610545</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:51:47</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44096.61929398148</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13697,10 +13351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:50:37</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44096.61848379629</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13768,10 +13420,8 @@
           <t>3518610545</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:49:21</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44096.61760416667</v>
       </c>
       <c r="I184" t="n">
         <v>2</v>
@@ -13839,10 +13489,8 @@
           <t>3518610545</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:49:14</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44096.61752314815</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13918,10 +13566,8 @@
           <t>3518610545</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:47:19</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44096.61619212963</v>
       </c>
       <c r="I186" t="n">
         <v>2</v>
@@ -13985,10 +13631,8 @@
           <t>3518605456</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:45:59</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44096.61526620371</v>
       </c>
       <c r="I187" t="n">
         <v>3</v>
@@ -14052,10 +13696,8 @@
           <t>3518602943</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:45:04</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44096.61462962963</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14119,10 +13761,8 @@
           <t>3518598319</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:43:56</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44096.61384259259</v>
       </c>
       <c r="I189" t="n">
         <v>7</v>
@@ -14190,10 +13830,8 @@
           <t>3518593360</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:42:46</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44096.6130324074</v>
       </c>
       <c r="I190" t="n">
         <v>7</v>
@@ -14265,10 +13903,8 @@
           <t>3518601112</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:42:23</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44096.6127662037</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14336,10 +13972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:41:41</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44096.6122800926</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14399,10 +14033,8 @@
           <t>3518580083</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:41:13</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44096.61195601852</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14470,10 +14102,8 @@
           <t>3518600258</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:41:10</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44096.61192129629</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14541,10 +14171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:40:56</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44096.61175925926</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14620,10 +14248,8 @@
           <t>3518539403</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:39:36</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44096.61083333333</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14695,10 +14321,8 @@
           <t>3518583950</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:37:47</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44096.60957175926</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14770,10 +14394,8 @@
           <t>3518579811</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:37:24</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44096.60930555555</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14837,10 +14459,8 @@
           <t>3518579703</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:37:13</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44096.60917824074</v>
       </c>
       <c r="I199" t="n">
         <v>3</v>
@@ -14912,10 +14532,8 @@
           <t>3518579278</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:36:33</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44096.60871527778</v>
       </c>
       <c r="I200" t="n">
         <v>11</v>
@@ -14987,10 +14605,8 @@
           <t>3518580083</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:36:24</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44096.60861111111</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15058,10 +14674,8 @@
           <t>3518582904</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:36:18</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44096.60854166667</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15129,10 +14743,8 @@
           <t>3518517201</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:34:35</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44096.60734953704</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15196,10 +14808,8 @@
           <t>3518581712</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:34:31</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44096.60730324074</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15275,10 +14885,8 @@
           <t>3518577520</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:33:55</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44096.60688657407</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15346,10 +14954,8 @@
           <t>3518580083</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:32:33</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44096.6059375</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15425,10 +15031,8 @@
           <t>3518580083</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:32:08</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44096.60564814815</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15500,10 +15104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:31:48</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44096.60541666667</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15567,10 +15169,8 @@
           <t>3518575748</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:31:26</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44096.60516203703</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15642,10 +15242,8 @@
           <t>3518521552</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:30:39</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44096.60461805556</v>
       </c>
       <c r="I210" t="n">
         <v>3</v>
@@ -15709,10 +15307,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:29:56</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44096.60412037037</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15772,10 +15368,8 @@
           <t>3518549959</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:29:46</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44096.60400462963</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -15851,10 +15445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:28:12</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44096.60291666666</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15914,10 +15506,8 @@
           <t>3518521552</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:28:06</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44096.60284722222</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15993,10 +15583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:27:05</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44096.6021412037</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16072,10 +15660,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:25:04</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44096.60074074074</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16135,10 +15721,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:24:22</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44096.60025462963</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16202,10 +15786,8 @@
           <t>3518554721</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:23:50</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44096.59988425926</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16281,10 +15863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:22:49</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44096.59917824074</v>
       </c>
       <c r="I219" t="n">
         <v>50</v>
@@ -16356,10 +15936,8 @@
           <t>3518549959</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:22:48</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44096.59916666667</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16427,10 +16005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:22:28</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44096.59893518518</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16502,10 +16078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:22:18</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44096.59881944444</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16573,10 +16147,8 @@
           <t>3518553470</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:21:57</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44096.59857638889</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16636,10 +16208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:21:41</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44096.5983912037</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16715,10 +16285,8 @@
           <t>3518553248</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:21:36</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44096.59833333334</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16778,10 +16346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:21:08</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44096.59800925926</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16853,10 +16419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:20:44</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44096.59773148148</v>
       </c>
       <c r="I227" t="n">
         <v>29</v>
@@ -16924,10 +16488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:19:49</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44096.59709490741</v>
       </c>
       <c r="I228" t="n">
         <v>2</v>
@@ -16995,10 +16557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:19:43</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44096.59702546296</v>
       </c>
       <c r="I229" t="n">
         <v>5</v>
@@ -17074,10 +16634,8 @@
           <t>3518539403</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:18:00</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44096.59583333333</v>
       </c>
       <c r="I230" t="n">
         <v>4</v>
@@ -17141,10 +16699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:17:58</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44096.59581018519</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17208,10 +16764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:17:32</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44096.59550925926</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17283,10 +16837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:17:16</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44096.59532407407</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17362,10 +16914,8 @@
           <t>3518539818</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:16:30</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44096.59479166667</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17441,10 +16991,8 @@
           <t>3518539403</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:15:54</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44096.594375</v>
       </c>
       <c r="I235" t="n">
         <v>16</v>
@@ -17508,10 +17056,8 @@
           <t>3518543048</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:15:49</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44096.59431712963</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17587,10 +17133,8 @@
           <t>3518545023</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:15:37</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44096.59417824074</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17666,10 +17210,8 @@
           <t>3518538977</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:15:13</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44096.59390046296</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17733,10 +17275,8 @@
           <t>3518521552</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:14:49</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44096.59362268518</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17800,10 +17340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:14:06</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44096.593125</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17875,10 +17413,8 @@
           <t>3518541455</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:13:32</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44096.59273148148</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -17954,10 +17490,8 @@
           <t>3518521552</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:13:15</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44096.59253472222</v>
       </c>
       <c r="I242" t="n">
         <v>2</v>
@@ -18033,10 +17567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:13:12</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44096.5925</v>
       </c>
       <c r="I243" t="n">
         <v>230</v>
@@ -18104,10 +17636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:12:57</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44096.59232638889</v>
       </c>
       <c r="I244" t="n">
         <v>3</v>
@@ -18171,10 +17701,8 @@
           <t>3518536758</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:11:59</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44096.59165509259</v>
       </c>
       <c r="I245" t="n">
         <v>3</v>
@@ -18234,10 +17762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:11:43</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44096.59146990741</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18305,10 +17831,8 @@
           <t>3518536327</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:11:25</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44096.59126157407</v>
       </c>
       <c r="I247" t="n">
         <v>2</v>
@@ -18376,10 +17900,8 @@
           <t>3518529928</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:11:22</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44096.59122685185</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18451,10 +17973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:10:26</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44096.5905787037</v>
       </c>
       <c r="I249" t="n">
         <v>88</v>
@@ -18526,10 +18046,8 @@
           <t>3518528091</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:08:38</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44096.5893287037</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18605,10 +18123,8 @@
           <t>3518517201</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:08:38</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44096.5893287037</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18684,10 +18200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:08:05</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44096.58894675926</v>
       </c>
       <c r="I252" t="n">
         <v>16</v>
@@ -18763,10 +18277,8 @@
           <t>3518519685</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:08:05</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44096.58894675926</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18830,10 +18342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:07:32</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44096.58856481482</v>
       </c>
       <c r="I254" t="n">
         <v>28</v>
@@ -18901,10 +18411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:06:37</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44096.58792824074</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18976,10 +18484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:06:31</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44096.58785879629</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19055,10 +18561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:06:23</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44096.5877662037</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19126,10 +18630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:06:13</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44096.58765046296</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19197,10 +18699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:05:20</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44096.58703703704</v>
       </c>
       <c r="I259" t="n">
         <v>2</v>
@@ -19264,10 +18764,8 @@
           <t>3518521552</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:04:37</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44096.58653935185</v>
       </c>
       <c r="I260" t="n">
         <v>89</v>
@@ -19331,10 +18829,8 @@
           <t>3518517201</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:04:36</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44096.58652777778</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19398,10 +18894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:03:50</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44096.58599537037</v>
       </c>
       <c r="I262" t="n">
         <v>4</v>
@@ -19465,10 +18959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:03:48</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44096.58597222222</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19532,10 +19024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:03:39</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44096.58586805555</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19599,10 +19089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:02:59</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44096.58540509259</v>
       </c>
       <c r="I265" t="n">
         <v>139</v>
@@ -19678,10 +19166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:02:57</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44096.58538194445</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19757,10 +19243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:02:36</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44096.58513888889</v>
       </c>
       <c r="I267" t="n">
         <v>325</v>
@@ -19836,10 +19320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:02:36</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44096.58513888889</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19903,10 +19385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:02:06</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44096.58479166667</v>
       </c>
       <c r="I269" t="n">
         <v>2</v>
@@ -19978,10 +19458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:01:10</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44096.58414351852</v>
       </c>
       <c r="I270" t="n">
         <v>4</v>
@@ -20041,10 +19519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:01:03</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44096.5840625</v>
       </c>
       <c r="I271" t="n">
         <v>2</v>
@@ -20116,10 +19592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:01:02</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44096.58405092593</v>
       </c>
       <c r="I272" t="n">
         <v>2</v>
@@ -20187,10 +19661,8 @@
           <t>3518512419</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:00:54</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44096.58395833334</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20266,10 +19738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:00:39</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44096.58378472222</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20337,10 +19807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:00:16</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44096.58351851852</v>
       </c>
       <c r="I275" t="n">
         <v>16</v>
